--- a/statistics/export/templates/area_month_template.xlsx
+++ b/statistics/export/templates/area_month_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>大区9月报数据</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>总计</t>
-  </si>
-  <si>
-    <t>渠道分析</t>
-  </si>
-  <si>
-    <t>渠道</t>
-  </si>
-  <si>
-    <t>分析</t>
   </si>
 </sst>
 </file>
@@ -98,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -134,16 +125,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -165,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,73 +169,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -279,41 +200,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,8 +227,6 @@
       <rgbColor rgb="ff2b2b2b"/>
       <rgbColor rgb="ffb4c6e7"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="fffe2c23"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -475,13 +364,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -580,10 +463,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -838,13 +721,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1157,10 +1034,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1411,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1764,752 +1641,81 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
     </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-    </row>
-    <row r="13" ht="14" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="6" ht="14" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-    </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A14:J14"/>
+  <mergeCells count="30">
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A19:S19"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B16:S16"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="A20:S20"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B17:S17"/>
-    <mergeCell ref="A21:S21"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A22:S22"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/statistics/export/templates/area_month_template.xlsx
+++ b/statistics/export/templates/area_month_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>大区9月报数据</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>本月</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -169,13 +166,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -206,6 +290,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +338,7 @@
       <rgbColor rgb="ff2b2b2b"/>
       <rgbColor rgb="ffb4c6e7"/>
       <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1288,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1642,9 +1754,7 @@
       <c r="AM5" s="7"/>
     </row>
     <row r="6" ht="14" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1684,38 +1794,202 @@
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
     </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/statistics/export/templates/area_month_template.xlsx
+++ b/statistics/export/templates/area_month_template.xlsx
@@ -25,7 +25,7 @@
     <t>新增学校</t>
   </si>
   <si>
-    <t>同比增长率</t>
+    <t>环比增长率</t>
   </si>
   <si>
     <t>教师数量总数</t>
@@ -1960,36 +1960,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="A1:AM1"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/statistics/export/templates/area_month_template.xlsx
+++ b/statistics/export/templates/area_month_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>大区9月报数据</t>
   </si>
@@ -22,61 +22,152 @@
     <t>学校总数</t>
   </si>
   <si>
-    <t>新增学校</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>环比增长率</t>
+    <t>新增教师 +上月/本月</t>
   </si>
   <si>
-    <t>教师数量总数</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>新增教师数量</t>
+    <t>考试总数</t>
   </si>
   <si>
-    <t>在册学生人数</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">新增考试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>新增学生人数</t>
+    <t>单词总数</t>
   </si>
   <si>
-    <t>考试使用总数</t>
+    <t>新增单词
+上月/本月</t>
   </si>
   <si>
-    <t>新增考试次数</t>
+    <t>阅读总数</t>
   </si>
   <si>
-    <t>新增图像数量</t>
+    <t>新增阅读
+上月/本月</t>
   </si>
   <si>
-    <t>单词使用总数</t>
+    <t>图像总数</t>
   </si>
   <si>
-    <t>新增单词使用</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">新增图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>阅读使用次数总数</t>
+    <t>绑定总数</t>
   </si>
   <si>
-    <t>新增阅读使用</t>
+    <t>绑定率</t>
   </si>
   <si>
-    <t>平均绑定率</t>
-  </si>
-  <si>
-    <t>新增家长数量</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">新增绑定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
     <t>付费总数</t>
   </si>
   <si>
-    <t>新增付费</t>
-  </si>
-  <si>
-    <t>上月</t>
-  </si>
-  <si>
-    <t>本月</t>
+    <t>新增付费 +上月/本月</t>
   </si>
 </sst>
 </file>
@@ -86,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -117,11 +208,6 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -143,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -168,6 +254,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right/>
@@ -182,6 +283,15 @@
       <right/>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -259,7 +369,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -272,9 +382,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -284,12 +403,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -315,6 +428,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1400,52 +1519,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.35156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.67188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85156" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85156" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.67188" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85156" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.35156" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.17188" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85156" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.17188" style="1" customWidth="1"/>
-    <col min="33" max="33" width="6" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="6" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.67188" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.67188" style="1" customWidth="1"/>
-    <col min="38" max="38" width="5.17188" style="1" customWidth="1"/>
-    <col min="39" max="39" width="6.85156" style="1" customWidth="1"/>
-    <col min="40" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.92188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.2188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.17188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.0703" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.17188" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.2812" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7188" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.17188" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3828" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85156" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
@@ -1453,14 +1551,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1468,528 +1566,245 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="H2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s" s="4">
+      <c r="I2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="J2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s" s="4">
+      <c r="K2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s" s="4">
+      <c r="L2" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="M2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="s" s="4">
+      <c r="N2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="AC2" t="s" s="4">
+      <c r="O2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF2" t="s" s="4">
+      <c r="P2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="AG2" t="s" s="4">
+      <c r="Q2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="AJ2" t="s" s="4">
+      <c r="R2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="AK2" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="5"/>
-      <c r="AM2" t="s" s="4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="Z3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="AD3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="AH3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AM3" s="5"/>
+    <row r="3" ht="12.5" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="15"/>
     </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AB2:AB3"/>
+  <mergeCells count="19">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
